--- a/filexcel/SomanyUsersData.xlsx
+++ b/filexcel/SomanyUsersData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushal.golangade\eclipse-workspace\Somany\filexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC8830-9846-421F-91C0-F2F20361571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFE8234-BC09-4DF7-8CCD-29734C95A0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,18 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>retailer</t>
-  </si>
-  <si>
-    <t>distributor</t>
-  </si>
-  <si>
-    <t>sales team f1</t>
-  </si>
-  <si>
-    <t>sales team f2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Sales Team f1</t>
+  </si>
+  <si>
+    <t>Sales Team f2</t>
+  </si>
+  <si>
+    <t>AutomationData</t>
+  </si>
+  <si>
+    <t>DATA 1</t>
+  </si>
+  <si>
+    <t>DATA 2</t>
+  </si>
+  <si>
+    <t>DATA 3</t>
+  </si>
+  <si>
+    <t>DATA 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9021336929</t>
+  </si>
+  <si>
+    <t>9315749351</t>
+  </si>
+  <si>
+    <t>9654120602</t>
+  </si>
+  <si>
+    <t>7498493462</t>
+  </si>
+  <si>
+    <t>457346578</t>
+  </si>
+  <si>
+    <t>00000578</t>
+  </si>
+  <si>
+    <t>7777746578</t>
   </si>
 </sst>
 </file>
@@ -72,9 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,46 +397,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>9021336929</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9315749351</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9654120602</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7498493462</v>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
